--- a/data/Економіки та митної справи_Форма 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020_ЕМС.xlsx
+++ b/data/Економіки та митної справи_Форма 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020_ЕМС.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="195" windowWidth="20730" windowHeight="3660"/>
@@ -15,10 +15,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="SDisc2">OFFSET([1]Списки!$B$4,0,0,[1]Списки!$B$2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">денна!$A$1:$I$91</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">заочна!$A$1:$I$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">денна!$A$1:$J$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">заочна!$A$1:$J$75</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="93">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -540,12 +540,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -576,7 +582,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -635,6 +641,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -661,6 +673,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -757,7 +779,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -792,7 +814,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -980,10 +1002,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,48 +1016,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1045,21 +1069,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1068,22 +1094,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1092,35 +1120,38 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1129,9 +1160,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="23"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1191,11 @@
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -1188,8 +1223,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="J14" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -1215,8 +1253,9 @@
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -1242,8 +1281,9 @@
         <v>25</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>3</v>
       </c>
@@ -1269,8 +1309,9 @@
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>4</v>
       </c>
@@ -1296,8 +1337,9 @@
         <v>27</v>
       </c>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>5</v>
       </c>
@@ -1323,8 +1365,9 @@
         <v>27</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>6</v>
       </c>
@@ -1350,8 +1393,9 @@
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>7</v>
       </c>
@@ -1377,8 +1421,9 @@
         <v>31</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>8</v>
       </c>
@@ -1404,8 +1449,9 @@
         <v>31</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>9</v>
       </c>
@@ -1431,8 +1477,9 @@
         <v>36</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>10</v>
       </c>
@@ -1458,8 +1505,9 @@
         <v>36</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>11</v>
       </c>
@@ -1485,8 +1533,9 @@
         <v>38</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>12</v>
       </c>
@@ -1512,8 +1561,9 @@
         <v>38</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>13</v>
       </c>
@@ -1539,8 +1589,9 @@
         <v>25</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>14</v>
       </c>
@@ -1566,8 +1617,9 @@
         <v>25</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>15</v>
       </c>
@@ -1593,8 +1645,9 @@
         <v>41</v>
       </c>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>16</v>
       </c>
@@ -1620,8 +1673,9 @@
         <v>41</v>
       </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>17</v>
       </c>
@@ -1647,8 +1701,9 @@
         <v>41</v>
       </c>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>18</v>
       </c>
@@ -1674,8 +1729,9 @@
         <v>41</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
         <v>19</v>
       </c>
@@ -1701,8 +1757,9 @@
         <v>41</v>
       </c>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
         <v>20</v>
       </c>
@@ -1728,8 +1785,9 @@
         <v>41</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>21</v>
       </c>
@@ -1755,8 +1813,9 @@
         <v>31</v>
       </c>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>22</v>
       </c>
@@ -1782,8 +1841,9 @@
         <v>31</v>
       </c>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
         <v>23</v>
       </c>
@@ -1809,8 +1869,9 @@
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
         <v>24</v>
       </c>
@@ -1838,8 +1899,9 @@
       <c r="I38" s="17">
         <v>394</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J38" s="36"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>25</v>
       </c>
@@ -1865,8 +1927,9 @@
         <v>36</v>
       </c>
       <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>26</v>
       </c>
@@ -1894,8 +1957,9 @@
       <c r="I40" s="17">
         <v>394</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>27</v>
       </c>
@@ -1921,8 +1985,9 @@
         <v>31</v>
       </c>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
         <v>28</v>
       </c>
@@ -1948,8 +2013,9 @@
         <v>31</v>
       </c>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
         <v>29</v>
       </c>
@@ -1977,8 +2043,9 @@
       <c r="I43" s="17">
         <v>486</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="36"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
         <v>30</v>
       </c>
@@ -2006,8 +2073,9 @@
       <c r="I44" s="17">
         <v>486</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>31</v>
       </c>
@@ -2033,8 +2101,9 @@
         <v>38</v>
       </c>
       <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>32</v>
       </c>
@@ -2060,8 +2129,9 @@
         <v>38</v>
       </c>
       <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
         <v>33</v>
       </c>
@@ -2089,8 +2159,9 @@
       <c r="I47" s="17">
         <v>486</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
         <v>34</v>
       </c>
@@ -2118,8 +2189,9 @@
       <c r="I48" s="17">
         <v>394</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="36"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
         <v>35</v>
       </c>
@@ -2145,8 +2217,9 @@
         <v>27</v>
       </c>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>36</v>
       </c>
@@ -2172,8 +2245,9 @@
         <v>27</v>
       </c>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>37</v>
       </c>
@@ -2199,8 +2273,9 @@
         <v>59</v>
       </c>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
         <v>38</v>
       </c>
@@ -2226,8 +2301,9 @@
         <v>59</v>
       </c>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
         <v>39</v>
       </c>
@@ -2253,8 +2329,9 @@
         <v>25</v>
       </c>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
         <v>40</v>
       </c>
@@ -2280,8 +2357,9 @@
         <v>25</v>
       </c>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>41</v>
       </c>
@@ -2307,8 +2385,9 @@
         <v>60</v>
       </c>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>42</v>
       </c>
@@ -2334,8 +2413,9 @@
         <v>60</v>
       </c>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>43</v>
       </c>
@@ -2361,8 +2441,9 @@
         <v>60</v>
       </c>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
         <v>44</v>
       </c>
@@ -2388,8 +2469,9 @@
         <v>60</v>
       </c>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
         <v>45</v>
       </c>
@@ -2415,8 +2497,9 @@
         <v>64</v>
       </c>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>46</v>
       </c>
@@ -2442,8 +2525,9 @@
         <v>64</v>
       </c>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>47</v>
       </c>
@@ -2469,8 +2553,9 @@
         <v>59</v>
       </c>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J61" s="35"/>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
         <v>48</v>
       </c>
@@ -2496,8 +2581,9 @@
         <v>59</v>
       </c>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
         <v>49</v>
       </c>
@@ -2523,8 +2609,9 @@
         <v>64</v>
       </c>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
         <v>50</v>
       </c>
@@ -2550,8 +2637,9 @@
         <v>64</v>
       </c>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>51</v>
       </c>
@@ -2577,8 +2665,9 @@
         <v>69</v>
       </c>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>52</v>
       </c>
@@ -2604,8 +2693,9 @@
         <v>69</v>
       </c>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
         <v>53</v>
       </c>
@@ -2631,8 +2721,9 @@
         <v>70</v>
       </c>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
         <v>54</v>
       </c>
@@ -2658,8 +2749,9 @@
         <v>70</v>
       </c>
       <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J68" s="35"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
         <v>55</v>
       </c>
@@ -2685,8 +2777,9 @@
         <v>60</v>
       </c>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J69" s="35"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>56</v>
       </c>
@@ -2712,8 +2805,9 @@
         <v>60</v>
       </c>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J70" s="35"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>57</v>
       </c>
@@ -2739,8 +2833,9 @@
         <v>36</v>
       </c>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J71" s="35"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
         <v>58</v>
       </c>
@@ -2766,8 +2861,9 @@
         <v>36</v>
       </c>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="35"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
         <v>59</v>
       </c>
@@ -2793,8 +2889,9 @@
         <v>41</v>
       </c>
       <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="35"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
         <v>60</v>
       </c>
@@ -2820,8 +2917,9 @@
         <v>41</v>
       </c>
       <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J74" s="35"/>
+    </row>
+    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>61</v>
       </c>
@@ -2847,8 +2945,9 @@
         <v>31</v>
       </c>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J75" s="35"/>
+    </row>
+    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>62</v>
       </c>
@@ -2874,8 +2973,9 @@
         <v>31</v>
       </c>
       <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J76" s="35"/>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
         <v>63</v>
       </c>
@@ -2901,8 +3001,9 @@
         <v>60</v>
       </c>
       <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J77" s="35"/>
+    </row>
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
         <v>64</v>
       </c>
@@ -2928,8 +3029,9 @@
         <v>60</v>
       </c>
       <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J78" s="35"/>
+    </row>
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
         <v>65</v>
       </c>
@@ -2955,8 +3057,9 @@
         <v>69</v>
       </c>
       <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J79" s="35"/>
+    </row>
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>66</v>
       </c>
@@ -2982,8 +3085,9 @@
         <v>69</v>
       </c>
       <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J80" s="35"/>
+    </row>
+    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>67</v>
       </c>
@@ -3009,8 +3113,9 @@
         <v>60</v>
       </c>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J81" s="35"/>
+    </row>
+    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
         <v>68</v>
       </c>
@@ -3036,8 +3141,9 @@
         <v>60</v>
       </c>
       <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J82" s="35"/>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
         <v>69</v>
       </c>
@@ -3063,8 +3169,9 @@
         <v>60</v>
       </c>
       <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J83" s="35"/>
+    </row>
+    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
         <v>70</v>
       </c>
@@ -3090,47 +3197,52 @@
         <v>60</v>
       </c>
       <c r="I84" s="2"/>
-    </row>
-    <row r="87" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J84" s="35"/>
+    </row>
+    <row r="87" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="29" t="s">
+      <c r="H87" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="29"/>
-    </row>
-    <row r="88" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="30" t="s">
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+    </row>
+    <row r="88" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H88" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I88" s="30"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="22" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-      <c r="I91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3142,16 +3254,16 @@
     <protectedRange sqref="B79:B80" name="Диапазон1_57"/>
   </protectedRanges>
   <mergeCells count="10">
-    <mergeCell ref="A91:I91"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="A91:J91"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="A90:J90"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="вибрати дисципліну зі списку" sqref="B51:B56 B62 B66 B75:B80">
@@ -3159,7 +3271,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3168,10 +3280,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A47" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,48 +3294,50 @@
     <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="13" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="N1" s="10"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="24" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
+      <c r="A4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="1:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3233,21 +3347,23 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:13" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3256,22 +3372,24 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -3280,35 +3398,38 @@
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3317,9 +3438,10 @@
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="23"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:14" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -3347,8 +3469,11 @@
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
@@ -3376,8 +3501,11 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J14" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>1</v>
       </c>
@@ -3401,8 +3529,9 @@
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -3426,8 +3555,9 @@
         <v>25</v>
       </c>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>3</v>
       </c>
@@ -3451,8 +3581,9 @@
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J17" s="35"/>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>4</v>
       </c>
@@ -3476,8 +3607,9 @@
         <v>27</v>
       </c>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>5</v>
       </c>
@@ -3501,8 +3633,9 @@
         <v>25</v>
       </c>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>6</v>
       </c>
@@ -3526,8 +3659,9 @@
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>7</v>
       </c>
@@ -3551,8 +3685,9 @@
         <v>27</v>
       </c>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>8</v>
       </c>
@@ -3576,8 +3711,9 @@
         <v>31</v>
       </c>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>9</v>
       </c>
@@ -3601,8 +3737,9 @@
         <v>31</v>
       </c>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J23" s="35"/>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>10</v>
       </c>
@@ -3626,8 +3763,9 @@
         <v>31</v>
       </c>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J24" s="35"/>
+    </row>
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>11</v>
       </c>
@@ -3651,8 +3789,9 @@
         <v>36</v>
       </c>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>12</v>
       </c>
@@ -3676,8 +3815,9 @@
         <v>36</v>
       </c>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>13</v>
       </c>
@@ -3701,8 +3841,9 @@
         <v>38</v>
       </c>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J27" s="35"/>
+    </row>
+    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>14</v>
       </c>
@@ -3726,8 +3867,9 @@
         <v>38</v>
       </c>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J28" s="35"/>
+    </row>
+    <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>15</v>
       </c>
@@ -3751,8 +3893,9 @@
         <v>25</v>
       </c>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>16</v>
       </c>
@@ -3776,8 +3919,9 @@
         <v>25</v>
       </c>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>17</v>
       </c>
@@ -3801,8 +3945,9 @@
         <v>41</v>
       </c>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J31" s="35"/>
+    </row>
+    <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>18</v>
       </c>
@@ -3826,8 +3971,9 @@
         <v>41</v>
       </c>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>19</v>
       </c>
@@ -3851,8 +3997,9 @@
         <v>41</v>
       </c>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>20</v>
       </c>
@@ -3876,8 +4023,9 @@
         <v>41</v>
       </c>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J34" s="35"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>21</v>
       </c>
@@ -3901,8 +4049,9 @@
         <v>52</v>
       </c>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J35" s="35"/>
+    </row>
+    <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>22</v>
       </c>
@@ -3926,8 +4075,9 @@
         <v>52</v>
       </c>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J36" s="35"/>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>23</v>
       </c>
@@ -3951,8 +4101,9 @@
         <v>38</v>
       </c>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J37" s="35"/>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>24</v>
       </c>
@@ -3976,8 +4127,9 @@
         <v>38</v>
       </c>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J38" s="35"/>
+    </row>
+    <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>25</v>
       </c>
@@ -4001,8 +4153,9 @@
         <v>52</v>
       </c>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>26</v>
       </c>
@@ -4028,8 +4181,9 @@
       <c r="I40" s="17">
         <v>394</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J40" s="36"/>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>27</v>
       </c>
@@ -4053,8 +4207,9 @@
         <v>60</v>
       </c>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J41" s="35"/>
+    </row>
+    <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>28</v>
       </c>
@@ -4078,8 +4233,9 @@
         <v>60</v>
       </c>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="35"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>29</v>
       </c>
@@ -4103,8 +4259,9 @@
         <v>60</v>
       </c>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="35"/>
+    </row>
+    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>30</v>
       </c>
@@ -4128,8 +4285,9 @@
         <v>60</v>
       </c>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" s="35"/>
+    </row>
+    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>31</v>
       </c>
@@ -4153,8 +4311,9 @@
         <v>64</v>
       </c>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J45" s="35"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>32</v>
       </c>
@@ -4178,8 +4337,9 @@
         <v>64</v>
       </c>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>33</v>
       </c>
@@ -4203,8 +4363,9 @@
         <v>59</v>
       </c>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J47" s="35"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>34</v>
       </c>
@@ -4228,8 +4389,9 @@
         <v>59</v>
       </c>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J48" s="35"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>35</v>
       </c>
@@ -4253,8 +4415,9 @@
         <v>64</v>
       </c>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J49" s="35"/>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>36</v>
       </c>
@@ -4278,8 +4441,9 @@
         <v>64</v>
       </c>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>37</v>
       </c>
@@ -4303,8 +4467,9 @@
         <v>69</v>
       </c>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>38</v>
       </c>
@@ -4328,8 +4493,9 @@
         <v>69</v>
       </c>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J52" s="35"/>
+    </row>
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>39</v>
       </c>
@@ -4353,8 +4519,9 @@
         <v>60</v>
       </c>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J53" s="35"/>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>40</v>
       </c>
@@ -4378,8 +4545,9 @@
         <v>60</v>
       </c>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J54" s="35"/>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>41</v>
       </c>
@@ -4403,8 +4571,9 @@
         <v>60</v>
       </c>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>42</v>
       </c>
@@ -4428,8 +4597,9 @@
         <v>60</v>
       </c>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>43</v>
       </c>
@@ -4453,8 +4623,9 @@
         <v>36</v>
       </c>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J57" s="35"/>
+    </row>
+    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>44</v>
       </c>
@@ -4478,8 +4649,9 @@
         <v>36</v>
       </c>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="35"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>45</v>
       </c>
@@ -4503,8 +4675,9 @@
         <v>41</v>
       </c>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="35"/>
+    </row>
+    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>46</v>
       </c>
@@ -4528,8 +4701,9 @@
         <v>41</v>
       </c>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J60" s="35"/>
+    </row>
+    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>47</v>
       </c>
@@ -4553,8 +4727,9 @@
         <v>31</v>
       </c>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J61" s="35"/>
+    </row>
+    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>48</v>
       </c>
@@ -4578,8 +4753,9 @@
         <v>31</v>
       </c>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J62" s="35"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>49</v>
       </c>
@@ -4603,8 +4779,9 @@
         <v>60</v>
       </c>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J63" s="35"/>
+    </row>
+    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>50</v>
       </c>
@@ -4628,8 +4805,9 @@
         <v>60</v>
       </c>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J64" s="35"/>
+    </row>
+    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>51</v>
       </c>
@@ -4653,8 +4831,9 @@
         <v>69</v>
       </c>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J65" s="35"/>
+    </row>
+    <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>52</v>
       </c>
@@ -4678,8 +4857,9 @@
         <v>69</v>
       </c>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J66" s="35"/>
+    </row>
+    <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>53</v>
       </c>
@@ -4703,8 +4883,9 @@
         <v>60</v>
       </c>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J67" s="35"/>
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>54</v>
       </c>
@@ -4728,47 +4909,52 @@
         <v>60</v>
       </c>
       <c r="I68" s="2"/>
-    </row>
-    <row r="71" spans="1:9" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J68" s="35"/>
+    </row>
+    <row r="71" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="29" t="s">
+      <c r="H71" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="29"/>
-    </row>
-    <row r="72" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H72" s="30" t="s">
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+    </row>
+    <row r="72" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="30"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -4778,16 +4964,16 @@
     <protectedRange sqref="B65:B66" name="Диапазон1_57"/>
   </protectedRanges>
   <mergeCells count="10">
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A74:I74"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="A74:J74"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="B11:J11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="вибрати дисципліну зі списку" sqref="B48 B52 B61:B66">
@@ -4795,6 +4981,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Економіки та митної справи_Форма 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020_ЕМС.xlsx
+++ b/data/Економіки та митної справи_Форма 44 ВІДОМІСТЬ ДОРУЧЕНЬ - 2020_ЕМС.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="94">
   <si>
     <t>МІНІСТЕРСТВО ОСВІТИ І НАУКИ УКРАЇНИ</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>МТЕ-219м;МТЕ-319м;МТЕ-519м</t>
+  </si>
+  <si>
+    <t>Пропозиції  щодо аудиторій</t>
   </si>
 </sst>
 </file>
@@ -647,6 +650,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -673,16 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -991,7 +994,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,8 +1007,8 @@
   </sheetPr>
   <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,33 +1034,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1072,18 +1075,18 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -1098,18 +1101,18 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -1124,32 +1127,32 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -1189,9 +1192,9 @@
         <v>17</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1223,7 +1226,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="25">
         <v>10</v>
       </c>
     </row>
@@ -1253,7 +1256,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -1281,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
@@ -1309,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -1337,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
@@ -1365,7 +1368,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
@@ -1393,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -1421,7 +1424,7 @@
         <v>31</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
@@ -1449,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
@@ -1477,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -1505,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
@@ -1533,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
@@ -1561,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -1589,7 +1592,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
@@ -1617,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
@@ -1645,7 +1648,7 @@
         <v>41</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -1673,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
@@ -1701,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
@@ -1729,7 +1732,7 @@
         <v>41</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="20">
@@ -1757,7 +1760,7 @@
         <v>41</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="20">
@@ -1785,7 +1788,7 @@
         <v>41</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
@@ -1813,7 +1816,7 @@
         <v>31</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
@@ -1841,7 +1844,7 @@
         <v>31</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="20">
@@ -1869,7 +1872,7 @@
         <v>36</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="20">
@@ -1899,7 +1902,7 @@
       <c r="I38" s="17">
         <v>394</v>
       </c>
-      <c r="J38" s="36"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
@@ -1927,7 +1930,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="17"/>
-      <c r="J39" s="36"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
@@ -1957,7 +1960,7 @@
       <c r="I40" s="17">
         <v>394</v>
       </c>
-      <c r="J40" s="36"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
@@ -1985,7 +1988,7 @@
         <v>31</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="20">
@@ -2013,7 +2016,7 @@
         <v>31</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="20">
@@ -2043,7 +2046,7 @@
       <c r="I43" s="17">
         <v>486</v>
       </c>
-      <c r="J43" s="36"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="20">
@@ -2073,7 +2076,7 @@
       <c r="I44" s="17">
         <v>486</v>
       </c>
-      <c r="J44" s="36"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -2101,7 +2104,7 @@
         <v>38</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="36"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
@@ -2129,7 +2132,7 @@
         <v>38</v>
       </c>
       <c r="I46" s="17"/>
-      <c r="J46" s="36"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="20">
@@ -2159,7 +2162,7 @@
       <c r="I47" s="17">
         <v>486</v>
       </c>
-      <c r="J47" s="36"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="20">
@@ -2189,7 +2192,7 @@
       <c r="I48" s="17">
         <v>394</v>
       </c>
-      <c r="J48" s="36"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="20">
@@ -2217,7 +2220,7 @@
         <v>27</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
@@ -2245,7 +2248,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -2273,7 +2276,7 @@
         <v>59</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="20">
@@ -2301,7 +2304,7 @@
         <v>59</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="20">
@@ -2329,7 +2332,7 @@
         <v>25</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -2357,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
@@ -2385,7 +2388,7 @@
         <v>60</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -2413,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
@@ -2441,7 +2444,7 @@
         <v>60</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="20">
@@ -2469,7 +2472,7 @@
         <v>60</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
@@ -2497,7 +2500,7 @@
         <v>64</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
@@ -2525,7 +2528,7 @@
         <v>64</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
@@ -2553,7 +2556,7 @@
         <v>59</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="20">
@@ -2581,7 +2584,7 @@
         <v>59</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="20">
@@ -2609,7 +2612,7 @@
         <v>64</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="20">
@@ -2637,7 +2640,7 @@
         <v>64</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
@@ -2665,7 +2668,7 @@
         <v>69</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
@@ -2693,7 +2696,7 @@
         <v>69</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="20">
@@ -2721,7 +2724,7 @@
         <v>70</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="20">
@@ -2749,7 +2752,7 @@
         <v>70</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="20">
@@ -2777,7 +2780,7 @@
         <v>60</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
@@ -2805,7 +2808,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
@@ -2833,7 +2836,7 @@
         <v>36</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="20">
@@ -2861,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="20">
@@ -2889,7 +2892,7 @@
         <v>41</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="20">
@@ -2917,7 +2920,7 @@
         <v>41</v>
       </c>
       <c r="I74" s="2"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
@@ -2945,7 +2948,7 @@
         <v>31</v>
       </c>
       <c r="I75" s="2"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
@@ -2973,7 +2976,7 @@
         <v>31</v>
       </c>
       <c r="I76" s="2"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20">
@@ -3001,7 +3004,7 @@
         <v>60</v>
       </c>
       <c r="I77" s="2"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="20">
@@ -3029,7 +3032,7 @@
         <v>60</v>
       </c>
       <c r="I78" s="2"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="20">
@@ -3057,7 +3060,7 @@
         <v>69</v>
       </c>
       <c r="I79" s="2"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
@@ -3085,7 +3088,7 @@
         <v>69</v>
       </c>
       <c r="I80" s="2"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
@@ -3113,7 +3116,7 @@
         <v>60</v>
       </c>
       <c r="I81" s="2"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="20">
@@ -3141,7 +3144,7 @@
         <v>60</v>
       </c>
       <c r="I82" s="2"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="20">
@@ -3169,7 +3172,7 @@
         <v>60</v>
       </c>
       <c r="I83" s="2"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="20">
@@ -3197,52 +3200,52 @@
         <v>60</v>
       </c>
       <c r="I84" s="2"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="87" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="31" t="s">
+      <c r="H87" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
     </row>
     <row r="88" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H88" s="32" t="s">
+      <c r="H88" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3282,8 +3285,8 @@
   </sheetPr>
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A47" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,33 +3312,33 @@
       <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -3350,18 +3353,18 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:14" ht="8.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -3376,18 +3379,18 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="11.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
@@ -3402,32 +3405,32 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -3467,9 +3470,9 @@
         <v>17</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3501,7 +3504,7 @@
       <c r="I14" s="8">
         <v>9</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="25">
         <v>9</v>
       </c>
     </row>
@@ -3529,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="35"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
@@ -3555,7 +3558,7 @@
         <v>25</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="35"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
@@ -3581,7 +3584,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
@@ -3607,7 +3610,7 @@
         <v>27</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
@@ -3633,7 +3636,7 @@
         <v>25</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
@@ -3659,7 +3662,7 @@
         <v>27</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
@@ -3685,7 +3688,7 @@
         <v>27</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
@@ -3711,7 +3714,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -3737,7 +3740,7 @@
         <v>31</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
@@ -3763,7 +3766,7 @@
         <v>31</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="35"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
@@ -3789,7 +3792,7 @@
         <v>36</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="35"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
@@ -3815,7 +3818,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="35"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
@@ -3841,7 +3844,7 @@
         <v>38</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="35"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
@@ -3867,7 +3870,7 @@
         <v>38</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="35"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
@@ -3893,7 +3896,7 @@
         <v>25</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="35"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -3919,7 +3922,7 @@
         <v>25</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="35"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
@@ -3945,7 +3948,7 @@
         <v>41</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
@@ -3971,7 +3974,7 @@
         <v>41</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="35"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
@@ -3997,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="35"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
@@ -4023,7 +4026,7 @@
         <v>41</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="35"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
@@ -4049,7 +4052,7 @@
         <v>52</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
@@ -4075,7 +4078,7 @@
         <v>52</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
@@ -4101,7 +4104,7 @@
         <v>38</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
@@ -4127,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
@@ -4153,7 +4156,7 @@
         <v>52</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
@@ -4181,7 +4184,7 @@
       <c r="I40" s="17">
         <v>394</v>
       </c>
-      <c r="J40" s="36"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
@@ -4207,7 +4210,7 @@
         <v>60</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
@@ -4233,7 +4236,7 @@
         <v>60</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
@@ -4259,7 +4262,7 @@
         <v>60</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
@@ -4285,7 +4288,7 @@
         <v>60</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -4311,7 +4314,7 @@
         <v>64</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
@@ -4337,7 +4340,7 @@
         <v>64</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
@@ -4363,7 +4366,7 @@
         <v>59</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
@@ -4389,7 +4392,7 @@
         <v>59</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
@@ -4415,7 +4418,7 @@
         <v>64</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="35"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
@@ -4441,7 +4444,7 @@
         <v>64</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="35"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
@@ -4467,7 +4470,7 @@
         <v>69</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
@@ -4493,7 +4496,7 @@
         <v>69</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
@@ -4519,7 +4522,7 @@
         <v>60</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
@@ -4545,7 +4548,7 @@
         <v>60</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="35"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
@@ -4571,7 +4574,7 @@
         <v>60</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -4597,7 +4600,7 @@
         <v>60</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
@@ -4623,7 +4626,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
@@ -4649,9 +4652,9 @@
         <v>36</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="35"/>
-    </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>45</v>
       </c>
@@ -4675,9 +4678,9 @@
         <v>41</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>46</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>41</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
@@ -4727,7 +4730,7 @@
         <v>31</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
@@ -4753,7 +4756,7 @@
         <v>31</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
@@ -4779,7 +4782,7 @@
         <v>60</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
@@ -4805,7 +4808,7 @@
         <v>60</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
@@ -4831,7 +4834,7 @@
         <v>69</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
@@ -4857,7 +4860,7 @@
         <v>69</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
@@ -4883,7 +4886,7 @@
         <v>60</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
@@ -4909,52 +4912,52 @@
         <v>60</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H71" s="31" t="s">
+      <c r="H71" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
     </row>
   </sheetData>
   <protectedRanges>
